--- a/cv_09/data/dvora135_EMB-cv_09_data.xlsx
+++ b/cv_09/data/dvora135_EMB-cv_09_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dvorakj/Disk Google/Sdílené složky/Škola_shared/3_semestr/EMB/Cv/Protokoly/cv_09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5265DE24-A1BA-3842-99D9-62998E1DB703}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC18201-B30F-3641-8A37-FC9A897E10D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="2400" windowWidth="27640" windowHeight="16860" xr2:uid="{33BC4E61-6734-2943-AA4E-0C25C1BD067A}"/>
+    <workbookView xWindow="5580" yWindow="3600" windowWidth="27640" windowHeight="16860" xr2:uid="{33BC4E61-6734-2943-AA4E-0C25C1BD067A}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,62 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+  <si>
+    <t>60 Hz [Hz]</t>
+  </si>
+  <si>
+    <t>10 kHz [kHz]</t>
+  </si>
+  <si>
+    <t>100 kHz [kHz]</t>
+  </si>
+  <si>
+    <t>0,1 s</t>
+  </si>
+  <si>
+    <t>1 s</t>
+  </si>
+  <si>
+    <t>10 s</t>
+  </si>
+  <si>
+    <t>60 Hz [s]</t>
+  </si>
+  <si>
+    <t>10 kHz [s]</t>
+  </si>
+  <si>
+    <t>100 kHz [s]</t>
+  </si>
+  <si>
+    <t>1 T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 T </t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>100 T</t>
+  </si>
+  <si>
+    <t>1000 T</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>f [kHz]</t>
+  </si>
+  <si>
+    <t>T [us]</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -380,14 +436,156 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E48717-D610-F845-9E61-63835B65E6EC}">
-  <dimension ref="A1"/>
+  <dimension ref="F5:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="5" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>70</v>
+      </c>
+      <c r="H6">
+        <v>10.63</v>
+      </c>
+      <c r="I6">
+        <v>110.83</v>
+      </c>
+    </row>
+    <row r="7" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>68</v>
+      </c>
+      <c r="H7">
+        <v>10.622</v>
+      </c>
+      <c r="I7">
+        <v>110.828</v>
+      </c>
+    </row>
+    <row r="8" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="H8">
+        <v>10.623100000000001</v>
+      </c>
+      <c r="I8">
+        <v>110.8373</v>
+      </c>
+    </row>
+    <row r="10" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <v>15100.7</v>
+      </c>
+      <c r="H11">
+        <v>93.6</v>
+      </c>
+      <c r="I11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>15101.87</v>
+      </c>
+      <c r="H12">
+        <v>93.64</v>
+      </c>
+      <c r="I12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13">
+        <v>93.648799999999994</v>
+      </c>
+      <c r="I13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14">
+        <v>93.636330000000001</v>
+      </c>
+      <c r="I14">
+        <v>9.0555299999999992</v>
+      </c>
+    </row>
+    <row r="15" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G19">
+        <v>32.767699999999998</v>
+      </c>
+      <c r="H19">
+        <v>2000038.9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/cv_09/data/dvora135_EMB-cv_09_data.xlsx
+++ b/cv_09/data/dvora135_EMB-cv_09_data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dvorakj/Disk Google/Sdílené složky/Škola_shared/3_semestr/EMB/Cv/Protokoly/cv_09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC18201-B30F-3641-8A37-FC9A897E10D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323B9CD4-980D-3243-B0F8-3A2EE4AE94A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="3600" windowWidth="27640" windowHeight="16860" xr2:uid="{33BC4E61-6734-2943-AA4E-0C25C1BD067A}"/>
+    <workbookView xWindow="7740" yWindow="22220" windowWidth="27640" windowHeight="16860" xr2:uid="{33BC4E61-6734-2943-AA4E-0C25C1BD067A}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,17 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>60 Hz [Hz]</t>
   </si>
   <si>
-    <t>10 kHz [kHz]</t>
-  </si>
-  <si>
-    <t>100 kHz [kHz]</t>
-  </si>
-  <si>
     <t>0,1 s</t>
   </si>
   <si>
@@ -84,12 +78,25 @@
   </si>
   <si>
     <t>T [us]</t>
+  </si>
+  <si>
+    <t>Nejistota</t>
+  </si>
+  <si>
+    <t>10 kHz [Hz]</t>
+  </si>
+  <si>
+    <t>100 kHz [Hz]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="172" formatCode="0.00000"/>
+    <numFmt numFmtId="173" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -108,7 +115,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -116,12 +123,159 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -436,156 +590,356 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E48717-D610-F845-9E61-63835B65E6EC}">
-  <dimension ref="F5:I19"/>
+  <dimension ref="E5:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="5" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="G5" t="s">
+      <c r="F5" s="20"/>
+      <c r="G5" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I5" t="s">
+      <c r="G6" s="5">
+        <v>70</v>
+      </c>
+      <c r="H6" s="5">
+        <v>10630</v>
+      </c>
+      <c r="I6" s="6">
+        <v>110830</v>
+      </c>
+    </row>
+    <row r="7" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F7" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F6" t="s">
+      <c r="G7" s="5">
+        <v>68</v>
+      </c>
+      <c r="H7" s="5">
+        <v>10622</v>
+      </c>
+      <c r="I7" s="6">
+        <v>110828</v>
+      </c>
+    </row>
+    <row r="8" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G6">
-        <v>70</v>
-      </c>
-      <c r="H6">
-        <v>10.63</v>
-      </c>
-      <c r="I6">
-        <v>110.83</v>
-      </c>
-    </row>
-    <row r="7" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F7" t="s">
+      <c r="G8" s="8">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="H8" s="8">
+        <v>10623.1</v>
+      </c>
+      <c r="I8" s="9">
+        <v>110837.3</v>
+      </c>
+    </row>
+    <row r="10" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F10" s="20"/>
+      <c r="G10" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G7">
-        <v>68</v>
-      </c>
-      <c r="H7">
-        <v>10.622</v>
-      </c>
-      <c r="I7">
-        <v>110.828</v>
-      </c>
-    </row>
-    <row r="8" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F8" t="s">
+      <c r="H10" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G8">
-        <v>67.900000000000006</v>
-      </c>
-      <c r="H8">
-        <v>10.623100000000001</v>
-      </c>
-      <c r="I8">
-        <v>110.8373</v>
-      </c>
-    </row>
-    <row r="10" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="G10" t="s">
+      <c r="I10" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H10" t="s">
+    </row>
+    <row r="11" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I10" t="s">
+      <c r="G11" s="5">
+        <v>15100.7</v>
+      </c>
+      <c r="H11" s="5">
+        <v>93.6</v>
+      </c>
+      <c r="I11" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F12" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F11" t="s">
+      <c r="G12" s="5">
+        <v>15101.87</v>
+      </c>
+      <c r="H12" s="5">
+        <v>93.64</v>
+      </c>
+      <c r="I12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G11">
-        <v>15100.7</v>
-      </c>
-      <c r="H11">
-        <v>93.6</v>
-      </c>
-      <c r="I11">
+    </row>
+    <row r="13" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12">
-        <v>15101.87</v>
-      </c>
-      <c r="H12">
-        <v>93.64</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="H13" s="5">
+        <v>93.648799999999994</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13">
-        <v>93.648799999999994</v>
-      </c>
-      <c r="I13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14">
+      <c r="G14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="8">
         <v>93.636330000000001</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="9">
         <v>9.0555299999999992</v>
       </c>
     </row>
     <row r="15" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="F18" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G18" t="s">
+    <row r="19" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="F19" s="7">
+        <v>32.767699999999998</v>
+      </c>
+      <c r="G19" s="9">
+        <v>2000038.9</v>
+      </c>
+    </row>
+    <row r="20" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+    </row>
+    <row r="21" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+    </row>
+    <row r="22" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+    </row>
+    <row r="23" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="F23" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H18" t="s">
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="5"/>
+    </row>
+    <row r="24" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="F24" s="1"/>
+      <c r="G24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G19">
-        <v>32.767699999999998</v>
-      </c>
-      <c r="H19">
-        <v>2000038.9</v>
-      </c>
+      <c r="I24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+    </row>
+    <row r="25" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="F25" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="G25" s="13">
+        <f>SQRT(((1/$F25)/SQRT(3))^2+(((2*10^(-5)*G6)/100)/SQRT(3))^2)</f>
+        <v>5.7735026919019168</v>
+      </c>
+      <c r="H25" s="13">
+        <f>SQRT(((1/$F25)/SQRT(3))^2+(((2*10^(-5)*H6)/100)/SQRT(3))^2)</f>
+        <v>5.7735028223738381</v>
+      </c>
+      <c r="I25" s="17">
+        <f t="shared" ref="H25:I25" si="0">SQRT(((1/$F25)/SQRT(3))^2+(((2*10^(-5)*I6)/100)/SQRT(3))^2)</f>
+        <v>5.7735168753991424</v>
+      </c>
+      <c r="K25" s="5"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="5"/>
+    </row>
+    <row r="26" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+      <c r="G26" s="13">
+        <f t="shared" ref="G26:I26" si="1">SQRT(((1/$F26)/SQRT(3))^2+(((2*10^(-5)*G7)/100)/SQRT(3))^2)</f>
+        <v>0.57735026924301924</v>
+      </c>
+      <c r="H26" s="13">
+        <f t="shared" si="1"/>
+        <v>0.5773515720007929</v>
+      </c>
+      <c r="I26" s="17">
+        <f t="shared" si="1"/>
+        <v>0.57749208185722056</v>
+      </c>
+      <c r="K26" s="5"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="5"/>
+    </row>
+    <row r="27" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="F27" s="7">
+        <v>10</v>
+      </c>
+      <c r="G27" s="18">
+        <f t="shared" ref="G27:I27" si="2">SQRT(((1/$F27)/SQRT(3))^2+(((2*10^(-5)*G8)/100)/SQRT(3))^2)</f>
+        <v>5.7735027451326873E-2</v>
+      </c>
+      <c r="H27" s="18">
+        <f t="shared" si="2"/>
+        <v>5.7748056273622464E-2</v>
+      </c>
+      <c r="I27" s="19">
+        <f t="shared" si="2"/>
+        <v>5.9136554636568632E-2</v>
+      </c>
+      <c r="K27" s="5"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="5"/>
+    </row>
+    <row r="28" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+    </row>
+    <row r="29" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+    </row>
+    <row r="30" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+    </row>
+    <row r="31" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="K23:N23"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>